--- a/recipes/croissants/croissant_sourdough.xlsx
+++ b/recipes/croissants/croissant_sourdough.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Croissant-1" sheetId="2" r:id="rId1"/>
+    <sheet name="recipe" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -103,6 +103,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,7 +479,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>

--- a/recipes/croissants/croissant_sourdough.xlsx
+++ b/recipes/croissants/croissant_sourdough.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="recipe" sheetId="2" r:id="rId1"/>
+    <sheet name="ingredients" sheetId="2" r:id="rId1"/>
+    <sheet name="steps" sheetId="3" r:id="rId2"/>
+    <sheet name="data" sheetId="4" r:id="rId3"/>
+    <sheet name="recipes" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
-  <si>
-    <t>ingredient</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>amount</t>
   </si>
@@ -30,45 +31,15 @@
     <t>unit</t>
   </si>
   <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>USDA #</t>
-  </si>
-  <si>
-    <t>USDA NAME</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>step name</t>
-  </si>
-  <si>
-    <t>stepNo</t>
-  </si>
-  <si>
-    <t>time in minutes</t>
-  </si>
-  <si>
     <t>temperature</t>
   </si>
   <si>
-    <t>step description</t>
-  </si>
-  <si>
     <t>white wheat flour</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>dough</t>
-  </si>
-  <si>
     <t>cold water</t>
   </si>
   <si>
@@ -90,20 +61,196 @@
     <t>butter packet</t>
   </si>
   <si>
-    <t>packet</t>
+    <t>variation from recipe</t>
+  </si>
+  <si>
+    <t>recipe source</t>
+  </si>
+  <si>
+    <t>cause of failure</t>
+  </si>
+  <si>
+    <t>notes on bake process</t>
+  </si>
+  <si>
+    <t>bake time</t>
+  </si>
+  <si>
+    <t>portion %</t>
+  </si>
+  <si>
+    <t>autolyze</t>
+  </si>
+  <si>
+    <t>stretch an d fold</t>
+  </si>
+  <si>
+    <t>bulk fermentation</t>
+  </si>
+  <si>
+    <t>proofing time</t>
+  </si>
+  <si>
+    <t>proof temperature</t>
+  </si>
+  <si>
+    <t>shaping</t>
+  </si>
+  <si>
+    <t>mix to start of bake time</t>
+  </si>
+  <si>
+    <t>recipe_id</t>
+  </si>
+  <si>
+    <t>recipe id</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>step_name</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>celcius</t>
+  </si>
+  <si>
+    <t>croissant_9</t>
+  </si>
+  <si>
+    <t>source_file_path</t>
+  </si>
+  <si>
+    <t>source_file_type</t>
+  </si>
+  <si>
+    <t>xls</t>
+  </si>
+  <si>
+    <t>croissant</t>
+  </si>
+  <si>
+    <t>croissant_sourdough_2</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>/Users/lilit/recipe_croissant.xls</t>
+  </si>
+  <si>
+    <t>/Users/lilit/recipe_croissant_2.txt</t>
+  </si>
+  <si>
+    <t>ingredient_name</t>
+  </si>
+  <si>
+    <t>step_description</t>
+  </si>
+  <si>
+    <t>recipe_step_id</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>king arthur</t>
+  </si>
+  <si>
+    <t>arrowhead whole wheat</t>
+  </si>
+  <si>
+    <t>spelt</t>
+  </si>
+  <si>
+    <t>hydration</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>recipe_name</t>
+  </si>
+  <si>
+    <t>ferment</t>
+  </si>
+  <si>
+    <t>fold butter</t>
+  </si>
+  <si>
+    <t>bake</t>
+  </si>
+  <si>
+    <t>kneading</t>
+  </si>
+  <si>
+    <t>mix ingredients in this step</t>
+  </si>
+  <si>
+    <t>refrigerate overnight</t>
+  </si>
+  <si>
+    <t>turn and fold 3 times</t>
+  </si>
+  <si>
+    <t>refrigerate</t>
+  </si>
+  <si>
+    <t>shape and proof</t>
+  </si>
+  <si>
+    <t>cold proof</t>
+  </si>
+  <si>
+    <t>shape croissants, eggwash and proof in warm place</t>
+  </si>
+  <si>
+    <t>temperature_unit</t>
+  </si>
+  <si>
+    <t>time_unit</t>
+  </si>
+  <si>
+    <t>add butter, and knead in</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result </t>
+  </si>
+  <si>
+    <t>poke test</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>pre bake appearance description</t>
+  </si>
+  <si>
+    <t>flours  used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +263,29 @@
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,18 +305,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="55">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,214 +756,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="27.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="27.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="84">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="5">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>437</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="5">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>140</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>125</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="5">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="5">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>300</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
-        <v>437</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <v>77</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>125</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <v>300</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -696,4 +984,525 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="38.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="187" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="28"/>
+    <row r="17" s="1" customFormat="1" ht="28"/>
+    <row r="18" s="1" customFormat="1" ht="28"/>
+    <row r="19" s="1" customFormat="1" ht="28"/>
+    <row r="20" s="1" customFormat="1" ht="28"/>
+    <row r="21" s="1" customFormat="1" ht="28"/>
+    <row r="22" s="1" customFormat="1" ht="28"/>
+    <row r="23" s="1" customFormat="1" ht="28"/>
+    <row r="24" s="1" customFormat="1" ht="28"/>
+    <row r="25" s="1" customFormat="1" ht="28"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="28">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="28">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8*B7/C7</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>